--- a/TF2 Text Based RPG.xlsx
+++ b/TF2 Text Based RPG.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ersan\Desktop\ödevler fln\first year\toga\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Toga RPG Game\TF2-TEXT-RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3C95917-7BED-41DC-8D87-92300D7EE9D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB20F3-A131-4160-AB07-083E98C7C0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1224" windowWidth="20712" windowHeight="10260" xr2:uid="{EFCB519D-991A-42F5-BEFB-0C2156273E92}"/>
+    <workbookView xWindow="228" yWindow="960" windowWidth="20712" windowHeight="10260" xr2:uid="{EFCB519D-991A-42F5-BEFB-0C2156273E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="95">
   <si>
     <t>Global Stats Class ( has all the basic stats)</t>
   </si>
@@ -187,21 +187,12 @@
     <t>was planning on making it a char function but there are 4 classes that would use S as their input</t>
   </si>
   <si>
-    <t>int ClassChooser;</t>
-  </si>
-  <si>
-    <t>cin &lt;&lt; ClassChooser;</t>
-  </si>
-  <si>
     <t>{</t>
   </si>
   <si>
     <t>case 1:</t>
   </si>
   <si>
-    <t xml:space="preserve">switch (ClassChooser) </t>
-  </si>
-  <si>
     <t>cout &lt;&lt; "You will spawn as  " &lt;&lt; ClassChooser &lt;&lt; "! " &lt;&lt; endl;</t>
   </si>
   <si>
@@ -236,6 +227,99 @@
   </si>
   <si>
     <t>cout &lt;&lt; "Restart the game" &lt;&lt; endl; (Not sure how to make it restart by it's own so i'll keep it like this for now)</t>
+  </si>
+  <si>
+    <t>or somehow make a preset thing to set the stats instantly by using like</t>
+  </si>
+  <si>
+    <t>Scout(); Heavy() and etc (could use functions for that perhaps but charlie told me to check</t>
+  </si>
+  <si>
+    <t>overloaded constructors</t>
+  </si>
+  <si>
+    <t>battle state stuff</t>
+  </si>
+  <si>
+    <t>inside battlestate</t>
+  </si>
+  <si>
+    <t>ask for the user input</t>
+  </si>
+  <si>
+    <t>switch case</t>
+  </si>
+  <si>
+    <t>1 primary</t>
+  </si>
+  <si>
+    <t>2 melee</t>
+  </si>
+  <si>
+    <t>still thinking about call for medic function</t>
+  </si>
+  <si>
+    <t>that player could reuse after some time</t>
+  </si>
+  <si>
+    <t>a special move for each class</t>
+  </si>
+  <si>
+    <t>after adding movement, create a movementcounter integer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this resets after each battlestate </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> getchoice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">and perhaps an escape function </t>
+  </si>
+  <si>
+    <t>machine.hp = player.primary.dmg - machine.hp (might work with sethp)</t>
+  </si>
+  <si>
+    <t>same thing goes for the other attacks</t>
+  </si>
+  <si>
+    <t>perhaps player can recharge healing ability after attacking</t>
+  </si>
+  <si>
+    <t>a certain amount of times by using attackcounter to check the value?</t>
+  </si>
+  <si>
+    <t>int ClassSelector;</t>
+  </si>
+  <si>
+    <t>cin &lt;&lt; ClassSelector;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">switch (ClassSelector) </t>
+  </si>
+  <si>
+    <t>damage values could be dealt randomly in a certain number range?</t>
+  </si>
+  <si>
+    <t>try to use something like x &gt; srand &gt; y ????</t>
+  </si>
+  <si>
+    <t>what i mean is something like header files for each class that are essentially linked to the mercenary which is also linked to globalstats</t>
+  </si>
+  <si>
+    <t>playable area/inbounds extends as player progresses by collecting more australium</t>
+  </si>
+  <si>
+    <t>while adding the movement from island adventure, set the array size to what you want</t>
+  </si>
+  <si>
+    <t>while loop with if case statements for multiple death messages?</t>
+  </si>
+  <si>
+    <t>try to create something similar to pokemon that also displays different messages based on the</t>
+  </si>
+  <si>
+    <t>damage value it does (critical hit, did no effect at all and etc)</t>
   </si>
 </sst>
 </file>
@@ -611,10 +695,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B82438-B908-45C6-B4F3-4E7D69D705FD}">
-  <dimension ref="A3:W49"/>
+  <dimension ref="A3:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,7 +950,7 @@
       <c r="T16" s="1"/>
       <c r="U16" s="1"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="Q17" s="1" t="s">
         <v>42</v>
       </c>
@@ -875,7 +959,7 @@
       <c r="T17" s="1"/>
       <c r="U17" s="1"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
         <v>28</v>
       </c>
@@ -893,7 +977,7 @@
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
         <v>29</v>
       </c>
@@ -904,7 +988,7 @@
       <c r="F19" s="5"/>
       <c r="G19" s="5"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="5" t="s">
         <v>30</v>
       </c>
@@ -915,7 +999,7 @@
       <c r="F20" s="5"/>
       <c r="G20" s="5"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="5" t="s">
         <v>45</v>
       </c>
@@ -926,7 +1010,7 @@
       <c r="F21" s="5"/>
       <c r="G21" s="5"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="5" t="s">
         <v>31</v>
       </c>
@@ -937,7 +1021,7 @@
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="5" t="s">
         <v>32</v>
       </c>
@@ -948,7 +1032,7 @@
       <c r="F23" s="5"/>
       <c r="G23" s="5"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="5" t="s">
         <v>33</v>
       </c>
@@ -959,13 +1043,13 @@
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
       <c r="M24" t="s">
-        <v>50</v>
+        <v>84</v>
       </c>
       <c r="O24" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="5" t="s">
         <v>34</v>
       </c>
@@ -979,7 +1063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="5" t="s">
         <v>35</v>
       </c>
@@ -993,19 +1077,19 @@
         <v>47</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M27" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M29" s="4" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="N29" s="4"/>
       <c r="O29" s="4"/>
@@ -1017,10 +1101,21 @@
       <c r="U29" s="4"/>
       <c r="V29" s="4"/>
       <c r="W29" s="4"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+      <c r="AE29" s="4"/>
+    </row>
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>67</v>
+      </c>
       <c r="M30" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
@@ -1032,10 +1127,18 @@
       <c r="U30" s="4"/>
       <c r="V30" s="4"/>
       <c r="W30" s="4"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+      <c r="AE30" s="4"/>
+    </row>
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M31" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="N31" s="4"/>
       <c r="O31" s="4"/>
@@ -1047,10 +1150,21 @@
       <c r="U31" s="4"/>
       <c r="V31" s="4"/>
       <c r="W31" s="4"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+      <c r="AE31" s="4"/>
+    </row>
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>76</v>
+      </c>
       <c r="M32" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -1062,10 +1176,21 @@
       <c r="U32" s="4"/>
       <c r="V32" s="4"/>
       <c r="W32" s="4"/>
-    </row>
-    <row r="33" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+      <c r="AE32" s="4"/>
+    </row>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>77</v>
+      </c>
       <c r="M33" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="N33" s="4"/>
       <c r="O33" s="4"/>
@@ -1077,10 +1202,18 @@
       <c r="U33" s="4"/>
       <c r="V33" s="4"/>
       <c r="W33" s="4"/>
-    </row>
-    <row r="34" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+      <c r="AE33" s="4"/>
+    </row>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M34" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N34" s="4"/>
       <c r="O34" s="4"/>
@@ -1092,13 +1225,26 @@
       <c r="U34" s="4"/>
       <c r="V34" s="4"/>
       <c r="W34" s="4"/>
-    </row>
-    <row r="35" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+      <c r="AE34" s="4"/>
+    </row>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>68</v>
+      </c>
       <c r="M35" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N35" s="4"/>
-      <c r="O35" s="4"/>
+      <c r="O35" s="4" t="s">
+        <v>64</v>
+      </c>
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="R35" s="4"/>
@@ -1107,13 +1253,29 @@
       <c r="U35" s="4"/>
       <c r="V35" s="4"/>
       <c r="W35" s="4"/>
-    </row>
-    <row r="36" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+      <c r="AE35" s="4"/>
+    </row>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>69</v>
+      </c>
+      <c r="D36" t="s">
+        <v>78</v>
+      </c>
       <c r="M36" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N36" s="4"/>
-      <c r="O36" s="4"/>
+      <c r="O36" s="4" t="s">
+        <v>65</v>
+      </c>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
       <c r="R36" s="4"/>
@@ -1122,23 +1284,52 @@
       <c r="U36" s="4"/>
       <c r="V36" s="4"/>
       <c r="W36" s="4"/>
-    </row>
-    <row r="37" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+      <c r="AE36" s="4"/>
+    </row>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>70</v>
+      </c>
       <c r="M37" s="4"/>
       <c r="N37" s="4"/>
-      <c r="O37" s="4"/>
+      <c r="O37" s="4" t="s">
+        <v>66</v>
+      </c>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
-      <c r="R37" s="4"/>
+      <c r="R37" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="S37" s="4"/>
       <c r="T37" s="4"/>
       <c r="U37" s="4"/>
       <c r="V37" s="4"/>
       <c r="W37" s="4"/>
-    </row>
-    <row r="38" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+    </row>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="C38" t="s">
+        <v>80</v>
+      </c>
       <c r="M38" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -1150,10 +1341,24 @@
       <c r="U38" s="4"/>
       <c r="V38" s="4"/>
       <c r="W38" s="4"/>
-    </row>
-    <row r="39" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+      <c r="AE38" s="4"/>
+    </row>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>72</v>
+      </c>
+      <c r="C39" t="s">
+        <v>81</v>
+      </c>
       <c r="M39" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -1165,10 +1370,24 @@
       <c r="U39" s="4"/>
       <c r="V39" s="4"/>
       <c r="W39" s="4"/>
-    </row>
-    <row r="40" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+    </row>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="F40" t="s">
+        <v>82</v>
+      </c>
       <c r="M40" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="N40" s="4"/>
       <c r="O40" s="4"/>
@@ -1180,10 +1399,24 @@
       <c r="U40" s="4"/>
       <c r="V40" s="4"/>
       <c r="W40" s="4"/>
-    </row>
-    <row r="41" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+    </row>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" t="s">
+        <v>83</v>
+      </c>
       <c r="M41" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="N41" s="4"/>
       <c r="O41" s="4"/>
@@ -1195,10 +1428,21 @@
       <c r="U41" s="4"/>
       <c r="V41" s="4"/>
       <c r="W41" s="4"/>
-    </row>
-    <row r="42" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+    </row>
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>75</v>
+      </c>
       <c r="M42" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
@@ -1210,10 +1454,21 @@
       <c r="U42" s="4"/>
       <c r="V42" s="4"/>
       <c r="W42" s="4"/>
-    </row>
-    <row r="43" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+      <c r="AE42" s="4"/>
+    </row>
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>79</v>
+      </c>
       <c r="M43" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="N43" s="4"/>
       <c r="O43" s="4"/>
@@ -1225,8 +1480,16 @@
       <c r="U43" s="4"/>
       <c r="V43" s="4"/>
       <c r="W43" s="4"/>
-    </row>
-    <row r="44" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+      <c r="AE43" s="4"/>
+    </row>
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M44" s="4"/>
       <c r="N44" s="4"/>
       <c r="O44" s="4"/>
@@ -1238,10 +1501,21 @@
       <c r="U44" s="4"/>
       <c r="V44" s="4"/>
       <c r="W44" s="4"/>
-    </row>
-    <row r="45" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+      <c r="AE44" s="4"/>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>87</v>
+      </c>
       <c r="M45" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N45" s="4"/>
       <c r="O45" s="4"/>
@@ -1253,10 +1527,21 @@
       <c r="U45" s="4"/>
       <c r="V45" s="4"/>
       <c r="W45" s="4"/>
-    </row>
-    <row r="46" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+      <c r="AE45" s="4"/>
+    </row>
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>88</v>
+      </c>
       <c r="M46" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="N46" s="4"/>
       <c r="O46" s="4"/>
@@ -1268,10 +1553,21 @@
       <c r="U46" s="4"/>
       <c r="V46" s="4"/>
       <c r="W46" s="4"/>
-    </row>
-    <row r="47" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+    </row>
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>93</v>
+      </c>
       <c r="M47" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
@@ -1283,10 +1579,21 @@
       <c r="U47" s="4"/>
       <c r="V47" s="4"/>
       <c r="W47" s="4"/>
-    </row>
-    <row r="48" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+      <c r="AE47" s="4"/>
+    </row>
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>94</v>
+      </c>
       <c r="M48" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="N48" s="4"/>
       <c r="O48" s="4"/>
@@ -1298,8 +1605,16 @@
       <c r="U48" s="4"/>
       <c r="V48" s="4"/>
       <c r="W48" s="4"/>
-    </row>
-    <row r="49" spans="13:23" x14ac:dyDescent="0.3">
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+      <c r="AE48" s="4"/>
+    </row>
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="M49" s="4"/>
       <c r="N49" s="4"/>
       <c r="O49" s="4"/>
@@ -1311,6 +1626,29 @@
       <c r="U49" s="4"/>
       <c r="V49" s="4"/>
       <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+      <c r="AE49" s="4"/>
+    </row>
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>92</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TF2 Text Based RPG.xlsx
+++ b/TF2 Text Based RPG.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Toga RPG Game\TF2-TEXT-RPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9FB20F3-A131-4160-AB07-083E98C7C0EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA07D17-F184-4AFD-8BB1-FB9E4FE307E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="960" windowWidth="20712" windowHeight="10260" xr2:uid="{EFCB519D-991A-42F5-BEFB-0C2156273E92}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{EFCB519D-991A-42F5-BEFB-0C2156273E92}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -697,8 +697,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B82438-B908-45C6-B4F3-4E7D69D705FD}">
   <dimension ref="A3:AE54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F50" sqref="F50"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
